--- a/WindowsFormsApp1/bin/Debug/Duplicatesheet1.xlsx
+++ b/WindowsFormsApp1/bin/Debug/Duplicatesheet1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="162">
   <si>
     <t>Скоба</t>
   </si>
@@ -120,22 +120,25 @@
     <t>40</t>
   </si>
   <si>
+    <t>Fam1</t>
+  </si>
+  <si>
+    <t>шу</t>
+  </si>
+  <si>
+    <t>Кузин</t>
+  </si>
+  <si>
+    <t>Пластина стопорная</t>
+  </si>
+  <si>
+    <t>ТА2215-312-000-001</t>
+  </si>
+  <si>
+    <t>30х43</t>
+  </si>
+  <si>
     <t>плазма</t>
-  </si>
-  <si>
-    <t>шу</t>
-  </si>
-  <si>
-    <t>Кузин</t>
-  </si>
-  <si>
-    <t>Пластина стопорная</t>
-  </si>
-  <si>
-    <t>ТА2215-312-000-001</t>
-  </si>
-  <si>
-    <t>30х43</t>
   </si>
   <si>
     <t>Шайба стопорная</t>
@@ -1319,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -1338,13 +1341,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1368,7 +1371,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -1404,7 +1407,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -1416,7 +1419,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -1533,7 +1536,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1552,7 +1555,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1566,7 +1569,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -1602,7 +1605,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -1614,7 +1617,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -1663,11 +1666,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -1684,7 +1687,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -1731,7 +1734,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1764,7 +1767,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -1800,7 +1803,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -1812,7 +1815,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -1861,11 +1864,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -1882,7 +1885,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -1929,7 +1932,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1948,7 +1951,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1962,7 +1965,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -1998,7 +2001,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -2010,7 +2013,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -2059,11 +2062,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -2126,14 +2129,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -2150,115 +2252,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -2269,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -2288,13 +2296,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2304,7 +2312,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2318,7 +2326,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -2354,7 +2362,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -2366,7 +2374,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -2415,7 +2423,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -2436,7 +2444,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -2483,7 +2491,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2502,7 +2510,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2516,7 +2524,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -2552,7 +2560,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -2564,7 +2572,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -2613,11 +2621,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -2634,7 +2642,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -2681,7 +2689,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2700,7 +2708,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2714,7 +2722,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -2750,7 +2758,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -2762,7 +2770,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -2815,7 +2823,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -2879,7 +2887,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2898,7 +2906,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2912,7 +2920,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -2948,7 +2956,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -2960,7 +2968,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -3013,7 +3021,7 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -3076,14 +3084,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -3100,115 +3207,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -3219,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -3238,13 +3251,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3254,7 +3267,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3268,7 +3281,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -3304,7 +3317,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -3316,7 +3329,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -3433,7 +3446,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3452,7 +3465,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3466,7 +3479,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -3502,7 +3515,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -3514,7 +3527,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -3563,11 +3576,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -3584,7 +3597,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -3631,7 +3644,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3650,7 +3663,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3664,7 +3677,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -3700,7 +3713,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -3712,7 +3725,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -3761,11 +3774,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -3782,7 +3795,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -3829,7 +3842,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3848,7 +3861,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3862,7 +3875,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -3898,7 +3911,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -3910,7 +3923,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -3959,11 +3972,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -3980,7 +3993,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -4026,14 +4039,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -4050,115 +4162,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -4169,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -4188,13 +4206,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4204,7 +4222,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4218,7 +4236,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -4254,7 +4272,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -4266,7 +4284,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -4315,7 +4333,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -4336,7 +4354,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -4383,7 +4401,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4402,7 +4420,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4416,7 +4434,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -4452,7 +4470,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -4464,7 +4482,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -4513,11 +4531,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -4534,7 +4552,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -4581,7 +4599,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4600,7 +4618,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4614,7 +4632,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -4650,7 +4668,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -4662,7 +4680,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -4711,11 +4729,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -4732,7 +4750,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -4779,7 +4797,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4798,7 +4816,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4812,7 +4830,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -4848,7 +4866,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -4860,7 +4878,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -4909,11 +4927,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -4930,7 +4948,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -4976,14 +4994,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -5000,115 +5117,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -5119,8 +5142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -5138,13 +5161,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5154,7 +5177,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5168,7 +5191,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -5204,7 +5227,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -5216,7 +5239,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -5333,7 +5356,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5352,7 +5375,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5366,7 +5389,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -5402,7 +5425,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -5414,7 +5437,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -5463,11 +5486,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -5484,7 +5507,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -5531,7 +5554,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5550,7 +5573,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5564,7 +5587,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -5600,7 +5623,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -5612,7 +5635,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -5661,11 +5684,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -5682,7 +5705,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -5729,7 +5752,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5748,7 +5771,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5762,11 +5785,11 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15">
@@ -5798,7 +5821,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -5810,7 +5833,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -5859,11 +5882,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -5880,7 +5903,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -5926,14 +5949,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -5950,115 +6072,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -6069,8 +6097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -6088,8 +6116,8 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
@@ -6154,7 +6182,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -6352,7 +6380,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -6417,7 +6445,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -6481,7 +6509,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6500,7 +6528,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6514,7 +6542,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -6550,7 +6578,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -6615,7 +6643,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -6679,7 +6707,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6698,7 +6726,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6712,7 +6740,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -6748,7 +6776,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -6813,7 +6841,7 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -6876,14 +6904,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -6900,115 +7027,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -7019,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -7038,13 +7071,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7054,7 +7087,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7068,7 +7101,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -7104,7 +7137,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -7116,7 +7149,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -7165,7 +7198,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -7186,7 +7219,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -7252,7 +7285,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7266,7 +7299,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -7302,7 +7335,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -7363,11 +7396,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -7384,7 +7417,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -7431,7 +7464,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7450,7 +7483,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7464,7 +7497,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -7500,7 +7533,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -7512,7 +7545,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -7561,11 +7594,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -7582,7 +7615,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -7629,7 +7662,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7648,7 +7681,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7662,7 +7695,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -7698,7 +7731,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -7710,7 +7743,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -7759,11 +7792,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -7780,7 +7813,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -7826,14 +7859,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -7850,115 +7982,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -7969,8 +8007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -7988,13 +8026,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8004,7 +8042,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8018,7 +8056,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -8054,7 +8092,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -8066,7 +8104,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -8115,7 +8153,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -8136,7 +8174,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -8183,7 +8221,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8202,7 +8240,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8216,7 +8254,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -8252,7 +8290,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -8264,7 +8302,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -8313,11 +8351,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -8334,7 +8372,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -8381,7 +8419,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8400,7 +8438,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8414,7 +8452,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -8450,7 +8488,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -8462,7 +8500,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -8511,11 +8549,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -8532,7 +8570,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -8579,7 +8617,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8598,7 +8636,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8612,7 +8650,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -8648,7 +8686,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -8660,7 +8698,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -8709,11 +8747,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -8730,7 +8768,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -8776,14 +8814,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -8800,115 +8937,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -8919,8 +8962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -8938,13 +8981,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8954,7 +8997,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8968,7 +9011,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -9004,7 +9047,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -9016,7 +9059,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -9065,7 +9108,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -9086,7 +9129,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -9133,7 +9176,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9152,7 +9195,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9166,7 +9209,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -9202,7 +9245,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -9214,7 +9257,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -9263,11 +9306,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -9284,7 +9327,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -9331,7 +9374,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9350,7 +9393,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9364,7 +9407,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -9400,7 +9443,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -9412,7 +9455,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -9461,11 +9504,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -9482,7 +9525,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -9529,7 +9572,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9548,7 +9591,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9562,7 +9605,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -9598,7 +9641,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -9610,7 +9653,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -9659,11 +9702,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -9680,7 +9723,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -9726,14 +9769,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -9750,115 +9892,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -9869,8 +9917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -9888,13 +9936,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9904,7 +9952,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9918,7 +9966,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -9954,7 +10002,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -9966,7 +10014,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -10083,7 +10131,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10102,7 +10150,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -10116,7 +10164,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -10152,7 +10200,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -10164,7 +10212,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -10217,7 +10265,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -10281,7 +10329,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -10300,7 +10348,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10314,7 +10362,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -10350,7 +10398,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -10362,7 +10410,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -10411,11 +10459,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -10432,7 +10480,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -10479,7 +10527,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -10498,7 +10546,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10512,7 +10560,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -10548,7 +10596,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -10560,7 +10608,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -10609,11 +10657,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -10630,7 +10678,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -10676,14 +10724,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -10700,115 +10847,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -10819,8 +10872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -10838,13 +10891,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10854,7 +10907,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10868,7 +10921,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -10904,7 +10957,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -10916,7 +10969,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -10965,7 +11018,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -10986,7 +11039,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -11033,7 +11086,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11052,7 +11105,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -11066,7 +11119,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -11102,7 +11155,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -11114,7 +11167,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -11163,11 +11216,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -11184,7 +11237,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -11231,7 +11284,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11250,7 +11303,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11264,7 +11317,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -11300,7 +11353,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -11312,7 +11365,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -11361,11 +11414,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -11382,7 +11435,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -11429,7 +11482,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -11448,7 +11501,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -11462,7 +11515,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -11498,7 +11551,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -11510,7 +11563,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -11559,11 +11612,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -11580,7 +11633,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -11626,14 +11679,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -11650,115 +11802,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -11769,8 +11827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -11788,13 +11846,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11804,7 +11862,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -11818,7 +11876,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -11854,7 +11912,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -11866,7 +11924,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -11915,7 +11973,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -11936,7 +11994,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -11983,7 +12041,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12002,7 +12060,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -12016,7 +12074,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -12052,7 +12110,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -12064,7 +12122,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -12113,11 +12171,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -12134,7 +12192,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -12181,7 +12239,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -12200,7 +12258,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -12214,7 +12272,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -12250,7 +12308,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -12262,7 +12320,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -12311,11 +12369,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -12332,7 +12390,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -12379,7 +12437,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -12398,7 +12456,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -12412,7 +12470,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -12448,7 +12506,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -12460,7 +12518,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -12509,11 +12567,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -12530,7 +12588,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -12576,14 +12634,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -12600,115 +12757,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
@@ -12719,8 +12782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -12738,13 +12801,13 @@
     <col min="11" max="11" width="8.7109375" widthPt="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28125" widthPt="27.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.421875" widthPt="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" widthPt="48" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="14" max="25" width="9.140625" widthPt="48" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" widthPt="48" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12754,7 +12817,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12768,7 +12831,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -12804,7 +12867,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
@@ -12816,7 +12879,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
@@ -12865,7 +12928,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
@@ -12886,7 +12949,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
@@ -12933,7 +12996,7 @@
     <row r="10" ht="60" customHeight="1"/>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12952,7 +13015,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -12966,7 +13029,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
@@ -13002,7 +13065,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
@@ -13014,7 +13077,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
@@ -13063,11 +13126,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
@@ -13084,7 +13147,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -13131,7 +13194,7 @@
     <row r="20" ht="60" customHeight="1"/>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13150,7 +13213,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -13164,7 +13227,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6" t="s">
@@ -13200,7 +13263,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
@@ -13212,7 +13275,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
@@ -13261,11 +13324,11 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -13282,7 +13345,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
@@ -13329,7 +13392,7 @@
     <row r="30" ht="60" customHeight="1"/>
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -13348,7 +13411,7 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13362,7 +13425,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -13398,7 +13461,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
@@ -13410,7 +13473,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="9"/>
@@ -13459,11 +13522,11 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -13480,7 +13543,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -13526,14 +13589,113 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -13550,115 +13712,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0.118110236220472" header="0" footer="0"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
